--- a/users.xlsx
+++ b/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDoc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\ywz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669A7312-9B1D-4B41-8CC1-4D06496DEA0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4928ABD3-ABD1-4060-BB78-59230F0622AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="525" windowWidth="26415" windowHeight="14115" xr2:uid="{50C2FCBE-B380-4B49-A33A-5A079F70516E}"/>
+    <workbookView xWindow="2760" yWindow="690" windowWidth="22560" windowHeight="14115" xr2:uid="{50C2FCBE-B380-4B49-A33A-5A079F70516E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>{"id":100,"name":"方凯教育"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,19 +89,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>imp0023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imp0024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导入23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导入24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imp0030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imp0031</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,28 +483,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD76F0F-7C45-4999-BC14-4DFE93EACDA5}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="27.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -515,14 +524,17 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>123456</v>
@@ -531,21 +543,24 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>13012345678</v>
+        <v>13012345630</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>123456</v>
@@ -554,15 +569,18 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>13012345679</v>
+        <v>13012345631</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
